--- a/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/COMPARACION_KERNELS/FILTRO16X16/kernels/resultados.xlsx
+++ b/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/COMPARACION_KERNELS/FILTRO16X16/kernels/resultados.xlsx
@@ -20,19 +20,19 @@
     <t>kernel_filter_color</t>
   </si>
   <si>
+    <t>kernel_filter_color_local_ineficiente</t>
+  </si>
+  <si>
+    <t>kernel_filter_color_local_hebra_maestra</t>
+  </si>
+  <si>
+    <t>kernel_filter_color_local_organizado</t>
+  </si>
+  <si>
+    <t>kernel_filter_color_local_organizado_junto</t>
+  </si>
+  <si>
     <t>kernel_filter_color_rectangular</t>
-  </si>
-  <si>
-    <t>kernel_filter_color_local</t>
-  </si>
-  <si>
-    <t>kernel_filter_color_local2</t>
-  </si>
-  <si>
-    <t>kernel_filter_color_local3</t>
-  </si>
-  <si>
-    <t>kernel_filter_color_local4</t>
   </si>
   <si>
     <t>kernel_filter_color_local_rectangular</t>
@@ -464,25 +464,19 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>1.5488E-05</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.3184E-05</v>
+        <v>1.7056E-05</v>
       </c>
       <c r="D2" s="1">
-        <v>3.1744E-05</v>
+        <v>4.096E-05</v>
       </c>
       <c r="E2" s="1">
-        <v>3.4848E-05</v>
+        <v>1.3312E-05</v>
       </c>
       <c r="F2" s="1">
-        <v>1.3184E-05</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1.3344E-05</v>
+        <v>1.424E-05</v>
       </c>
       <c r="H2" s="1">
-        <v>1.2704E-05</v>
+        <v>1.536E-05</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -492,23 +486,17 @@
       <c r="B3" s="1">
         <v>2.6624E-05</v>
       </c>
-      <c r="C3" s="1">
-        <v>1.3312E-05</v>
-      </c>
       <c r="D3" s="1">
-        <v>4.8192E-05</v>
+        <v>4.6944E-05</v>
       </c>
       <c r="E3" s="1">
-        <v>3.8976E-05</v>
+        <v>1.8432E-05</v>
       </c>
       <c r="F3" s="1">
         <v>1.8432E-05</v>
       </c>
-      <c r="G3" s="1">
-        <v>1.8112E-05</v>
-      </c>
       <c r="H3" s="1">
-        <v>1.4112E-05</v>
+        <v>1.4432E-05</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -516,25 +504,19 @@
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>0.000372736</v>
-      </c>
-      <c r="C4" s="1">
-        <v>7.043200000000001E-05</v>
+        <v>0.00037376</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0007088960000000001</v>
+        <v>0.000429056</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000372416</v>
+        <v>0.00020992</v>
       </c>
       <c r="F4" s="1">
-        <v>0.000208</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.000208896</v>
+        <v>0.000209792</v>
       </c>
       <c r="H4" s="1">
-        <v>5.0272E-05</v>
+        <v>5.3024E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -542,25 +524,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>0.000264192</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5.945600000000001E-05</v>
+        <v>0.000265024</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0006676480000000001</v>
+        <v>0.000651456</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000564864</v>
+        <v>0.000309248</v>
       </c>
       <c r="F5" s="1">
-        <v>0.000307392</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.000307104</v>
+        <v>0.000308224</v>
       </c>
       <c r="H5" s="1">
-        <v>6.3552E-05</v>
+        <v>6.540800000000001E-05</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -568,25 +544,19 @@
         <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>0.0005715200000000001</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.00011344</v>
+        <v>0.0005724160000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>0.001147904</v>
+        <v>0.001234816</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001928192</v>
+        <v>0.0005867520000000001</v>
       </c>
       <c r="F6" s="1">
-        <v>0.000586688</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.000585504</v>
+        <v>0.0005867520000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>0.000107296</v>
+        <v>0.000108864</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -594,25 +564,19 @@
         <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>0.002491392</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.000399136</v>
+        <v>0.002494464</v>
       </c>
       <c r="D7" s="1">
-        <v>0.00565856</v>
+        <v>0.002764064</v>
       </c>
       <c r="E7" s="1">
-        <v>0.00240144</v>
+        <v>0.001380352</v>
       </c>
       <c r="F7" s="1">
-        <v>0.001380352</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.00138208</v>
+        <v>0.001382208</v>
       </c>
       <c r="H7" s="1">
-        <v>0.000267264</v>
+        <v>0.000269408</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -622,23 +586,17 @@
       <c r="B8" s="1">
         <v>0.004603904000000001</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.000836928</v>
-      </c>
       <c r="D8" s="1">
-        <v>0.010269696</v>
+        <v>0.011907072</v>
       </c>
       <c r="E8" s="1">
-        <v>0.010428416</v>
+        <v>0.005271424</v>
       </c>
       <c r="F8" s="1">
-        <v>0.00527152</v>
-      </c>
-      <c r="G8" s="1">
         <v>0.005270528</v>
       </c>
       <c r="H8" s="1">
-        <v>0.0008541760000000001</v>
+        <v>0.001150016</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -646,25 +604,19 @@
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>0.03294224</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.00574176</v>
+        <v>0.032074784</v>
       </c>
       <c r="D9" s="1">
-        <v>0.08720384</v>
+        <v>0.065669984</v>
       </c>
       <c r="E9" s="1">
-        <v>0.06595891200000001</v>
+        <v>0.03212624</v>
       </c>
       <c r="F9" s="1">
-        <v>0.03312739200000001</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.032157696</v>
+        <v>0.03214131200000001</v>
       </c>
       <c r="H9" s="1">
-        <v>0.005639296</v>
+        <v>0.005639168</v>
       </c>
     </row>
   </sheetData>
@@ -714,25 +666,19 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>1.5488E-05</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.3184E-05</v>
+        <v>1.7056E-05</v>
       </c>
       <c r="D2" s="1">
-        <v>3.1744E-05</v>
+        <v>4.096E-05</v>
       </c>
       <c r="E2" s="1">
-        <v>3.4848E-05</v>
+        <v>1.3312E-05</v>
       </c>
       <c r="F2" s="1">
-        <v>1.3184E-05</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1.3344E-05</v>
+        <v>1.424E-05</v>
       </c>
       <c r="H2" s="1">
-        <v>1.2704E-05</v>
+        <v>1.536E-05</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -742,23 +688,17 @@
       <c r="B3" s="1">
         <v>2.6624E-05</v>
       </c>
-      <c r="C3" s="1">
-        <v>1.3312E-05</v>
-      </c>
       <c r="D3" s="1">
-        <v>4.8192E-05</v>
+        <v>4.6944E-05</v>
       </c>
       <c r="E3" s="1">
-        <v>3.8976E-05</v>
+        <v>1.8432E-05</v>
       </c>
       <c r="F3" s="1">
         <v>1.8432E-05</v>
       </c>
-      <c r="G3" s="1">
-        <v>1.8112E-05</v>
-      </c>
       <c r="H3" s="1">
-        <v>1.4112E-05</v>
+        <v>1.4432E-05</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -766,25 +706,19 @@
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>0.000372736</v>
-      </c>
-      <c r="C4" s="1">
-        <v>7.043200000000001E-05</v>
+        <v>0.00037376</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0007088960000000001</v>
+        <v>0.000429056</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000372416</v>
+        <v>0.00020992</v>
       </c>
       <c r="F4" s="1">
-        <v>0.000208</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.000208896</v>
+        <v>0.000209792</v>
       </c>
       <c r="H4" s="1">
-        <v>5.0272E-05</v>
+        <v>5.3024E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -792,25 +726,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>0.000264192</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5.945600000000001E-05</v>
+        <v>0.000265024</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0006676480000000001</v>
+        <v>0.000651456</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000564864</v>
+        <v>0.000309248</v>
       </c>
       <c r="F5" s="1">
-        <v>0.000307392</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.000307104</v>
+        <v>0.000308224</v>
       </c>
       <c r="H5" s="1">
-        <v>6.3552E-05</v>
+        <v>6.540800000000001E-05</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -818,25 +746,19 @@
         <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>0.0005715200000000001</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.00011344</v>
+        <v>0.0005724160000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>0.001147904</v>
+        <v>0.001234816</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001928192</v>
+        <v>0.0005867520000000001</v>
       </c>
       <c r="F6" s="1">
-        <v>0.000586688</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.000585504</v>
+        <v>0.0005867520000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>0.000107296</v>
+        <v>0.000108864</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -844,25 +766,19 @@
         <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>0.002491392</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.000399136</v>
+        <v>0.002494464</v>
       </c>
       <c r="D7" s="1">
-        <v>0.00565856</v>
+        <v>0.002764064</v>
       </c>
       <c r="E7" s="1">
-        <v>0.00240144</v>
+        <v>0.001380352</v>
       </c>
       <c r="F7" s="1">
-        <v>0.001380352</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.00138208</v>
+        <v>0.001382208</v>
       </c>
       <c r="H7" s="1">
-        <v>0.000267264</v>
+        <v>0.000269408</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -872,23 +788,17 @@
       <c r="B8" s="1">
         <v>0.004603904000000001</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.000836928</v>
-      </c>
       <c r="D8" s="1">
-        <v>0.010269696</v>
+        <v>0.011907072</v>
       </c>
       <c r="E8" s="1">
-        <v>0.010428416</v>
+        <v>0.005271424</v>
       </c>
       <c r="F8" s="1">
-        <v>0.00527152</v>
-      </c>
-      <c r="G8" s="1">
         <v>0.005270528</v>
       </c>
       <c r="H8" s="1">
-        <v>0.0008541760000000001</v>
+        <v>0.001150016</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -896,25 +806,19 @@
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>0.03294224</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.00574176</v>
+        <v>0.032074784</v>
       </c>
       <c r="D9" s="1">
-        <v>0.08720384</v>
+        <v>0.065669984</v>
       </c>
       <c r="E9" s="1">
-        <v>0.06595891200000001</v>
+        <v>0.03212624</v>
       </c>
       <c r="F9" s="1">
-        <v>0.03312739200000001</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.032157696</v>
+        <v>0.03214131200000001</v>
       </c>
       <c r="H9" s="1">
-        <v>0.005639296</v>
+        <v>0.005639168</v>
       </c>
     </row>
   </sheetData>
